--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2788437.775613314</v>
+        <v>2787711.176742089</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330303</v>
+        <v>5851605.615330297</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124479</v>
+        <v>864456.6793124472</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6737268.623751306</v>
+        <v>6737268.623751307</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>328.1229395778217</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>249.9409893751688</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>70.60839291404152</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>91.42297362471295</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.97154776676474</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>275.6989152705652</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>16.56126302845565</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>74.005365717641</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1034,7 +1034,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.273497641932</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>88.33325317843779</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>384.8774717948093</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6199347530832</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>237.9875865830589</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815327</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263987</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7.384367522362161</v>
       </c>
       <c r="F13" t="n">
-        <v>56.72514580316082</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>241.6479458835353</v>
@@ -1596,7 +1596,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
         <v>139.8834969875627</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>21.13525767253278</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
@@ -1830,10 +1830,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>106.6488155538371</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2067,10 +2067,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>52.02018028463653</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298449</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56236697288437</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E23" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298454</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56236697288437</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>38.77597185760842</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
@@ -2544,7 +2544,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.04510745646595</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>61.61386655719876</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2809,10 +2809,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2857,7 +2857,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
-        <v>59.64309870642131</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>103.1885574966865</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
         <v>387.3211661995113</v>
@@ -3046,10 +3046,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
         <v>316.8402373905461</v>
@@ -3094,7 +3094,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
         <v>367.4283645950528</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.04510745646592</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>125.7544744592043</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3243,16 +3243,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
         <v>192.9893998987849</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1885574966865</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>200.6202780835285</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
         <v>387.3211661995113</v>
@@ -3520,10 +3520,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>224.9909450967475</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
         <v>316.8402373905461</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>11.77793354237872</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037906</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>54.9210494150163</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>125.9103462479684</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
         <v>192.9893998987849</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678445</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798625</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3751,16 +3751,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258492</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1412945836353</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>307.7994123985591</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>85.48824505609751</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>165.9184445944661</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>379.922697856183</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527369</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213907</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>48.0173239035266</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.913542846909213</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4143,7 +4143,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>64.97216884135977</v>
+        <v>157.459961732892</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.098156350605</v>
+        <v>729.1578486224425</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.013969704279</v>
+        <v>319.0332579357126</v>
       </c>
       <c r="D2" t="n">
-        <v>960.5766569994082</v>
+        <v>318.6097320691773</v>
       </c>
       <c r="E2" t="n">
-        <v>546.2364415163049</v>
+        <v>308.309920626478</v>
       </c>
       <c r="F2" t="n">
-        <v>125.2060294699925</v>
+        <v>291.3199126205696</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>286.6320325538059</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J2" t="n">
-        <v>288.3518581880562</v>
+        <v>288.3518581880563</v>
       </c>
       <c r="K2" t="n">
-        <v>541.5402578923304</v>
+        <v>711.1608938517932</v>
       </c>
       <c r="L2" t="n">
-        <v>964.3492935560662</v>
+        <v>1133.96992951553</v>
       </c>
       <c r="M2" t="n">
-        <v>964.3492935560662</v>
+        <v>1346.601683530241</v>
       </c>
       <c r="N2" t="n">
-        <v>1387.158329219802</v>
+        <v>1346.601683530241</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.158329219802</v>
+        <v>1346.601683530241</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219802</v>
+        <v>1346.601683530241</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015094</v>
+        <v>1667.762690325533</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015094</v>
+        <v>1486.112851961957</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015094</v>
+        <v>1486.112851961957</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.319336015094</v>
+        <v>1136.275297298438</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.319336015094</v>
+        <v>1136.275297298438</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.319336015094</v>
+        <v>1136.275297298438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.319336015094</v>
+        <v>735.338624246528</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.9972286068362</v>
+        <v>712.9972286068364</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557819</v>
+        <v>579.0021573557821</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>462.1049995751745</v>
       </c>
       <c r="E3" t="n">
-        <v>341.6121835675024</v>
+        <v>341.6121835675025</v>
       </c>
       <c r="F3" t="n">
         <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643456</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.9149781000617</v>
+        <v>54.91497810006179</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J3" t="n">
-        <v>226.9792442829351</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466709</v>
+        <v>649.788279946672</v>
       </c>
       <c r="L3" t="n">
-        <v>935.6658356673747</v>
+        <v>649.788279946672</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.474871331111</v>
+        <v>906.1063163047482</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.474871331111</v>
+        <v>906.1063163047482</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331111</v>
+        <v>1328.915351968485</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331111</v>
+        <v>1328.915351968485</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015094</v>
+        <v>1678.759816652468</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="S3" t="n">
-        <v>1636.997727011012</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="T3" t="n">
-        <v>1636.997727011012</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.64691614923</v>
+        <v>1615.972898010338</v>
       </c>
       <c r="V3" t="n">
-        <v>1225.935389142264</v>
+        <v>1402.261371003372</v>
       </c>
       <c r="W3" t="n">
-        <v>1012.702220878593</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
         <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>853.3002612424228</v>
+        <v>853.3002612424231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.44067739380162</v>
+        <v>183.7738419148453</v>
       </c>
       <c r="C4" t="n">
-        <v>64.44067739380162</v>
+        <v>183.7738419148453</v>
       </c>
       <c r="D4" t="n">
-        <v>64.44067739380162</v>
+        <v>183.7738419148453</v>
       </c>
       <c r="E4" t="n">
-        <v>34.16638672030188</v>
+        <v>183.7738419148453</v>
       </c>
       <c r="F4" t="n">
-        <v>34.16638672030188</v>
+        <v>183.7738419148453</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16638672030188</v>
+        <v>183.7738419148453</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J4" t="n">
-        <v>48.2489361255124</v>
+        <v>48.24893612551249</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477504</v>
+        <v>202.8012638477505</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278109</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683042</v>
+        <v>751.9624205683043</v>
       </c>
       <c r="N4" t="n">
         <v>1032.801202962554</v>
@@ -4515,25 +4515,25 @@
         <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="U4" t="n">
-        <v>769.5539104192883</v>
+        <v>1199.808812218001</v>
       </c>
       <c r="V4" t="n">
-        <v>769.5539104192883</v>
+        <v>925.9230671575228</v>
       </c>
       <c r="W4" t="n">
-        <v>490.4842459281626</v>
+        <v>646.8534026663972</v>
       </c>
       <c r="X4" t="n">
-        <v>252.140383787846</v>
+        <v>408.5095405260806</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.140383787846</v>
+        <v>183.7738419148453</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>586.9476870282217</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>176.8230963414918</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.484985262347</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
-        <v>853.1447697792441</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>836.1547617733357</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>427.4264776661679</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>116.5179802938859</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>495.8616862216745</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.3531027449756</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>1063.485050816083</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>653.3604601293526</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.489158455042</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.4003990889748</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
         <v>41.76508562960205</v>
@@ -4995,19 +4995,19 @@
         <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W10" t="n">
-        <v>650.137706920372</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X10" t="n">
-        <v>650.137706920372</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.137706920372</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5080,7 +5080,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
         <v>3092.177045180321</v>
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.3549844251419</v>
+        <v>593.0802003456348</v>
       </c>
       <c r="C13" t="n">
-        <v>494.3549844251419</v>
+        <v>451.7837387420361</v>
       </c>
       <c r="D13" t="n">
-        <v>494.3549844251419</v>
+        <v>322.0860048996309</v>
       </c>
       <c r="E13" t="n">
-        <v>494.3549844251419</v>
+        <v>314.6270478063358</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512421</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5202,13 +5202,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N13" t="n">
         <v>1237.898275478248</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.203548008749</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.202311389558</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.113477163765</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="W13" t="n">
-        <v>897.8407235073241</v>
+        <v>996.5659394278172</v>
       </c>
       <c r="X13" t="n">
-        <v>689.2937722016924</v>
+        <v>788.0189881221853</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.3549844251419</v>
+        <v>593.0802003456348</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5317,13 +5317,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>1584.839892213121</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.899838715069</v>
+        <v>390.723119472716</v>
       </c>
       <c r="C16" t="n">
-        <v>299.6033771114703</v>
+        <v>249.4266578691172</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6033771114703</v>
+        <v>249.4266578691172</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6033771114703</v>
+        <v>249.4266578691172</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114703</v>
+        <v>114.5924428143933</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>114.5924428143933</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>114.5924428143933</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5466,22 +5466,22 @@
         <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310052</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.926290690861</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V16" t="n">
-        <v>992.8374564650675</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W16" t="n">
-        <v>743.5647028086266</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X16" t="n">
-        <v>635.8386264916195</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.899838715069</v>
+        <v>548.6259150320756</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5551,7 +5551,7 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W17" t="n">
         <v>3463.023532176684</v>
@@ -5597,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>741.8628115185547</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N18" t="n">
-        <v>1615.520903630173</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>440.6044708910126</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C19" t="n">
-        <v>440.6044708910126</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>310.9067370486075</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X19" t="n">
-        <v>635.5432586675631</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y19" t="n">
-        <v>440.6044708910126</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G20" t="n">
         <v>430.9101360764621</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5782,19 +5782,19 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
         <v>2721.037282963096</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.5401592942214</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5913,13 +5913,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130794</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365289</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6028,13 +6028,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>1584.839892213121</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.839892213121</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.5401592942214</v>
+        <v>338.771025452489</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>338.771025452489</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>338.771025452489</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>338.771025452489</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>338.771025452489</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6150,13 +6150,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N25" t="n">
         <v>1237.898275478248</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595456</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976265</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>1149.432313750472</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>900.159560094031</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130794</v>
+        <v>691.6126087883991</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365289</v>
+        <v>496.6738210118486</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764623</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.9414315330279</v>
+        <v>496.6738210118496</v>
       </c>
       <c r="C28" t="n">
-        <v>222.9414315330279</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365289</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6493,22 +6493,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="30">
@@ -6551,19 +6551,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.858880348135</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>197.474563848892</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>197.474563848892</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>197.474563848892</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>197.474563848892</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>197.474563848892</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6621,22 +6621,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674167</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,37 +6715,37 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6776,10 +6776,10 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
         <v>549.0499539559215</v>
@@ -6788,19 +6788,19 @@
         <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>2053.115206569777</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N33" t="n">
-        <v>2053.115206569777</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.6031562365289</v>
+        <v>340.0789637264452</v>
       </c>
       <c r="C34" t="n">
-        <v>284.6031562365289</v>
+        <v>340.0789637264452</v>
       </c>
       <c r="D34" t="n">
-        <v>154.9054223941237</v>
+        <v>340.0789637264452</v>
       </c>
       <c r="E34" t="n">
-        <v>93.24369769062281</v>
+        <v>340.0789637264452</v>
       </c>
       <c r="F34" t="n">
-        <v>93.24369769062281</v>
+        <v>340.0789637264452</v>
       </c>
       <c r="G34" t="n">
-        <v>93.24369769062281</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H34" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
         <v>1761.542230672484</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V34" t="n">
-        <v>937.361648975152</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130794</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365289</v>
+        <v>340.0789637264452</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C35" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G35" t="n">
         <v>430.9101360764616</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M35" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N35" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P35" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S35" t="n">
         <v>4556.700720159924</v>
@@ -6970,13 +6970,13 @@
         <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V35" t="n">
         <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
         <v>3092.17704518032</v>
@@ -7007,37 +7007,37 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H36" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="K36" t="n">
         <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1253.007044501816</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1814.712936990346</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.9936395339932</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="C37" t="n">
-        <v>230.6971779303946</v>
+        <v>197.474563848892</v>
       </c>
       <c r="D37" t="n">
-        <v>230.6971779303946</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="E37" t="n">
-        <v>230.6971779303946</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U37" t="n">
-        <v>1231.804974281219</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V37" t="n">
-        <v>987.7161400554253</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W37" t="n">
-        <v>738.4433863989846</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X37" t="n">
-        <v>529.8964350933528</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y37" t="n">
-        <v>529.8964350933528</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489457</v>
       </c>
       <c r="G38" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7219,7 +7219,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1129.033635947823</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.5427745949822</v>
+        <v>441.1980135219346</v>
       </c>
       <c r="C40" t="n">
-        <v>317.2463129913835</v>
+        <v>441.1980135219346</v>
       </c>
       <c r="D40" t="n">
-        <v>317.2463129913835</v>
+        <v>311.5002796795295</v>
       </c>
       <c r="E40" t="n">
-        <v>317.2463129913835</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2463129913835</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7359,25 +7359,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.203548008749</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.202311389558</v>
+        <v>1338.045340486351</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.113477163765</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.931309236524</v>
+        <v>844.6837526041168</v>
       </c>
       <c r="X40" t="n">
-        <v>811.3843579308923</v>
+        <v>636.136801298485</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.4455701543418</v>
+        <v>441.1980135219346</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976084</v>
       </c>
       <c r="C41" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1095.51547543218</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>674.4850633858673</v>
+        <v>899.2322418529993</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>490.5039577458315</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>179.5954603735496</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4494.590496051881</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051881</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>4144.752941388362</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523531</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.5005587179772</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C43" t="n">
-        <v>370.5005587179772</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D43" t="n">
-        <v>370.5005587179772</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E43" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F43" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1618.689520728736</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.891373274861</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1062.005628214383</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>782.9359637232569</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>782.9359637232569</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.2002651120216</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1458.288960155805</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2019.994852644335</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.6960310278942</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C46" t="n">
-        <v>679.6026585896107</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D46" t="n">
-        <v>520.1080139125206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7839,19 +7839,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1317.465401913064</v>
+        <v>941.2452414374386</v>
       </c>
       <c r="W46" t="n">
-        <v>1038.395737421939</v>
+        <v>662.175576946313</v>
       </c>
       <c r="X46" t="n">
-        <v>1038.395737421939</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.395737421939</v>
+        <v>423.8317148059963</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>344.8822479603628</v>
+        <v>516.2162236769917</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666184</v>
+        <v>522.5652320666194</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>308.0697739668549</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603928</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,19 +8060,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883889</v>
+        <v>482.90561678839</v>
       </c>
       <c r="L3" t="n">
-        <v>344.8797316095398</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421909</v>
+        <v>316.4713911708177</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.8313130037746</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8309,7 +8309,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298663</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>272.0504334731806</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>66.8161563599358</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9169,7 +9169,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>298.1389206772649</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>204.0221919942796</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>202.3852368051286</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9655,7 +9655,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9725,19 +9725,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8995157759063</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9956,7 +9956,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
@@ -9965,19 +9965,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>711.6624984671718</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>492.8993828617429</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>498.0116489728624</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10436,22 +10436,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>115.3859917360771</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780074</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10670,25 +10670,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.137504553472</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10831,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>695.4234724815018</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,13 +11390,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23418,22 +23418,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>122.4183977316636</v>
       </c>
       <c r="F13" t="n">
-        <v>76.76072710101585</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>64.5483860378464</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.81266623873839</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>51.84035121586605</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>154.4413015079389</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>48.0357996656774</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>97.30297357976565</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.2786601473</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>78.2696304303639</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.24039828114135</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>15.42388141957333</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>68.7576577975598</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>10.32447097816969</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037906</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.9210494150163</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>25.21219900729449</v>
       </c>
       <c r="E37" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037906</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.9210494150163</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.8509461694706</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>118.024831711647</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>120.869679871908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>222.4997066824608</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>54.06597461814363</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4898868230849</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>137.8053854265773</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.50644829444514</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>206.1747187685135</v>
+        <v>113.6869258769812</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>592423.97873461</v>
+        <v>592423.9787346099</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>592423.9787346101</v>
+        <v>592423.9787346099</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>592423.9787346101</v>
+        <v>592423.9787346099</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>592423.9787346099</v>
+        <v>592423.97873461</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>592423.9787346101</v>
+        <v>592423.9787346099</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635241.3328265821</v>
+        <v>635241.3328265818</v>
       </c>
       <c r="C2" t="n">
         <v>635241.3328265822</v>
       </c>
       <c r="D2" t="n">
-        <v>635241.3328265821</v>
+        <v>635241.3328265822</v>
       </c>
       <c r="E2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600273</v>
       </c>
       <c r="F2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600269</v>
       </c>
       <c r="G2" t="n">
         <v>615612.8085600275</v>
       </c>
       <c r="H2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600274</v>
       </c>
       <c r="I2" t="n">
+        <v>615612.8085600274</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615612.8085600275</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615612.8085600279</v>
+      </c>
+      <c r="L2" t="n">
         <v>615612.8085600277</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615612.8085600276</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615612.8085600274</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615612.8085600273</v>
       </c>
       <c r="M2" t="n">
         <v>615612.8085600275</v>
@@ -26352,10 +26352,10 @@
         <v>615612.8085600274</v>
       </c>
       <c r="O2" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934329</v>
       </c>
       <c r="P2" t="n">
-        <v>564814.9016934329</v>
+        <v>564814.9016934328</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108466</v>
+        <v>143124.2752108469</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.4608666882</v>
+        <v>30686.46086668785</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>215728.9162805135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691537</v>
+        <v>135342.029469154</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110956</v>
+        <v>24445.77426110933</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240285.7433202985</v>
+        <v>240285.7433202983</v>
       </c>
       <c r="C4" t="n">
         <v>222716.4087914901</v>
@@ -26426,34 +26426,34 @@
         <v>222716.4087914901</v>
       </c>
       <c r="E4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="F4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="G4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="H4" t="n">
         <v>133638.8779954489</v>
       </c>
       <c r="I4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="J4" t="n">
         <v>133638.8779954489</v>
       </c>
       <c r="K4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.877995449</v>
       </c>
       <c r="L4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.877995449</v>
       </c>
       <c r="M4" t="n">
         <v>133638.8779954489</v>
       </c>
       <c r="N4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.877995449</v>
       </c>
       <c r="O4" t="n">
         <v>103828.84857858</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742942</v>
+        <v>59594.05390742949</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26496,7 +26496,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
         <v>73345.15677686484</v>
@@ -26505,7 +26505,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192237.2603880077</v>
+        <v>192237.2603880071</v>
       </c>
       <c r="C6" t="n">
-        <v>316469.3980899064</v>
+        <v>316469.3980899068</v>
       </c>
       <c r="D6" t="n">
-        <v>347155.8589565945</v>
+        <v>347155.8589565946</v>
       </c>
       <c r="E6" t="n">
-        <v>192899.8575072002</v>
+        <v>192849.5279577987</v>
       </c>
       <c r="F6" t="n">
-        <v>408628.7737877138</v>
+        <v>408578.4442383118</v>
       </c>
       <c r="G6" t="n">
-        <v>408628.7737877138</v>
+        <v>408578.4442383124</v>
       </c>
       <c r="H6" t="n">
-        <v>408628.7737877139</v>
+        <v>408578.4442383123</v>
       </c>
       <c r="I6" t="n">
-        <v>408628.773787714</v>
+        <v>408578.4442383123</v>
       </c>
       <c r="J6" t="n">
-        <v>273286.7443185602</v>
+        <v>273236.4147691583</v>
       </c>
       <c r="K6" t="n">
-        <v>384182.9995266041</v>
+        <v>384132.6699772033</v>
       </c>
       <c r="L6" t="n">
-        <v>408628.7737877136</v>
+        <v>408578.4442383125</v>
       </c>
       <c r="M6" t="n">
-        <v>248270.3232870312</v>
+        <v>248219.9937376297</v>
       </c>
       <c r="N6" t="n">
-        <v>408628.7737877137</v>
+        <v>408578.4442383121</v>
       </c>
       <c r="O6" t="n">
-        <v>390120.8428699794</v>
+        <v>389940.2622773305</v>
       </c>
       <c r="P6" t="n">
-        <v>390120.8428699797</v>
+        <v>389940.2622773304</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625097</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.4826507627592</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625097</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625097</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627592</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>72.2963510300483</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>57.85842302339034</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>36.30171687279274</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>103.9543291284505</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27545,7 +27545,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>129.330159213599</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27554,7 +27554,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4.271250708771845</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>383.8580275794144</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>11.48287933845657</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27776,10 +27776,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27827,7 +27827,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.214843983191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>312.0860374294323</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -27918,10 +27918,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75949205792773</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.20277457702075</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28067,7 +28067,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>41.98257939627817</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633719</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633816</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633788</v>
       </c>
       <c r="W23" t="n">
-        <v>29.4989417263377</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="26">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633745</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="42">
@@ -34701,16 +34701,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>255.7458582871457</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>214.7795495098094</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037735</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7652077986908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037735</v>
+        <v>258.9071074324003</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>209.2450561298663</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>10.70163254908676</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M13" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>146.2707129942796</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36375,7 +36375,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6398807731025</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M25" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>443.7520139700587</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37156,22 +37156,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.63451273607708</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978333</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209619</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37390,25 +37390,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.4448860486332</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978333</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37551,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6719934815018</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978333</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
